--- a/data/example-sentences.xlsx
+++ b/data/example-sentences.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\apavlyuchenko\Documents\Projects\ContentAnalysis\ReviewScales\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C1C46D3-D6F1-43E3-97A0-E7582C9FA881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81E70093-B16A-4E78-9560-2506EB426094}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="984" uniqueCount="576">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="577">
   <si>
     <t>web-scraper-order</t>
   </si>
@@ -1946,6 +1946,11 @@
   </si>
   <si>
     <t>Прекрасный пылесос, тихий, мощностью всего 750вт, а значит экономный в плане электричества, при этом сила всасывания у него больше, чем у пылесосов например с 1600вт, в комплекте около 5 щеток, качественный пластик и сборка, лучший выбор за такую цену, рекомендую</t>
+  </si>
+  <si>
+    <t>Пылесос сделан в Китае ,а не во Франции как многие пишут. Мощность всасывания и правда очень сильная очень сложно пылесосить.У меня есть Самсунг с 480вт всасывания так вот Тефаль на порядок мощнее наверное все 550 или 600 . Не хватает регулировки мощности двигателя. Приходится открывать клапан на ручке что бы оторвать от ковра или пола,что отменяет всю фильтрацию в 99 % через клапан также летит часть пыли , также не герметичное соединение шланга с телескопической трубкой оттуда тоже выдувается часть пыли. Конструкция циклона очень неудобная для быстрого очищения контейнера, особенно если в доме есть длинноволосые . лучше очищать над ванной т.к часть собранного мусора при разборке всегда высыпается. По громкости он тише реально тише многих моделей пылесосов. Шнур тоньше привычного круглого провода .Выдув воздуха идёт вперёд из-за контейнера,что очень не привычно. Герметичность контейнера так себе. Это моё субъективное мнение о пылесосе. Судя по отзывам большинство в восторге от него. Я бы выбрал другой пылесос с регулировкой мощности двигателя и другой конструкцией циклонного контейнера с более удобной очисткой.
+Недостатки: Всё перечисленное выше. Может это придирки, но всё-таки удобство пользования это не маловажно.
+Комментарий: За эту цену конкурентов по мощности наверное нет среди других брендов и моделей. Он значительно тише. Своё мнение я описал выше.</t>
   </si>
 </sst>
 </file>
@@ -1984,7 +1989,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -2299,10 +2304,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F164"/>
+  <dimension ref="A1:F165"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2340,7 +2345,7 @@
       <c r="D2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2">
         <v>5</v>
       </c>
       <c r="F2" s="1" t="s">
@@ -2360,7 +2365,7 @@
       <c r="D3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3">
         <v>5</v>
       </c>
       <c r="F3" s="1" t="s">
@@ -2380,7 +2385,7 @@
       <c r="D4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4">
         <v>5</v>
       </c>
       <c r="F4" s="1" t="s">
@@ -2400,7 +2405,7 @@
       <c r="D5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5">
         <v>5</v>
       </c>
       <c r="F5" s="1" t="s">
@@ -2420,7 +2425,7 @@
       <c r="D6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6">
         <v>5</v>
       </c>
       <c r="F6" s="1" t="s">
@@ -2440,7 +2445,7 @@
       <c r="D7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7">
         <v>4</v>
       </c>
       <c r="F7" s="1" t="s">
@@ -2460,7 +2465,7 @@
       <c r="D8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8">
         <v>5</v>
       </c>
       <c r="F8" s="1" t="s">
@@ -2480,7 +2485,7 @@
       <c r="D9" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9">
         <v>4</v>
       </c>
       <c r="F9" s="1" t="s">
@@ -2500,7 +2505,7 @@
       <c r="D10" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10">
         <v>5</v>
       </c>
       <c r="F10" s="1" t="s">
@@ -2520,7 +2525,7 @@
       <c r="D11" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11">
         <v>5</v>
       </c>
       <c r="F11" s="1" t="s">
@@ -2540,7 +2545,7 @@
       <c r="D12" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12">
         <v>5</v>
       </c>
       <c r="F12" s="1" t="s">
@@ -2560,7 +2565,7 @@
       <c r="D13" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13">
         <v>5</v>
       </c>
       <c r="F13" s="1" t="s">
@@ -2580,7 +2585,7 @@
       <c r="D14" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14">
         <v>5</v>
       </c>
       <c r="F14" s="1" t="s">
@@ -2600,7 +2605,7 @@
       <c r="D15" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15">
         <v>5</v>
       </c>
       <c r="F15" s="1" t="s">
@@ -2620,7 +2625,7 @@
       <c r="D16" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16">
         <v>5</v>
       </c>
       <c r="F16" s="1" t="s">
@@ -2640,7 +2645,7 @@
       <c r="D17" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17">
         <v>5</v>
       </c>
       <c r="F17" s="1" t="s">
@@ -2660,7 +2665,7 @@
       <c r="D18" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18">
         <v>5</v>
       </c>
       <c r="F18" s="1" t="s">
@@ -2680,7 +2685,7 @@
       <c r="D19" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19">
         <v>5</v>
       </c>
       <c r="F19" s="1" t="s">
@@ -2700,7 +2705,7 @@
       <c r="D20" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E20">
         <v>5</v>
       </c>
       <c r="F20" s="1" t="s">
@@ -2720,7 +2725,7 @@
       <c r="D21" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E21">
         <v>5</v>
       </c>
       <c r="F21" s="1" t="s">
@@ -2740,7 +2745,7 @@
       <c r="D22" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E22">
         <v>5</v>
       </c>
       <c r="F22" s="1" t="s">
@@ -2760,7 +2765,7 @@
       <c r="D23" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E23">
         <v>5</v>
       </c>
       <c r="F23" s="1" t="s">
@@ -2780,7 +2785,7 @@
       <c r="D24" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="E24" s="2">
+      <c r="E24">
         <v>5</v>
       </c>
       <c r="F24" s="1" t="s">
@@ -2800,7 +2805,7 @@
       <c r="D25" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E25">
         <v>5</v>
       </c>
       <c r="F25" s="1" t="s">
@@ -2820,7 +2825,7 @@
       <c r="D26" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="E26" s="2">
+      <c r="E26">
         <v>5</v>
       </c>
       <c r="F26" s="1" t="s">
@@ -2840,7 +2845,7 @@
       <c r="D27" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="E27" s="2">
+      <c r="E27">
         <v>5</v>
       </c>
       <c r="F27" s="1" t="s">
@@ -2860,7 +2865,7 @@
       <c r="D28" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="E28" s="2">
+      <c r="E28">
         <v>5</v>
       </c>
       <c r="F28" s="1" t="s">
@@ -2880,7 +2885,7 @@
       <c r="D29" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="E29" s="2">
+      <c r="E29">
         <v>5</v>
       </c>
       <c r="F29" s="1" t="s">
@@ -2900,7 +2905,7 @@
       <c r="D30" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="E30" s="2">
+      <c r="E30">
         <v>5</v>
       </c>
       <c r="F30" s="1" t="s">
@@ -2920,7 +2925,7 @@
       <c r="D31" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E31" s="2">
+      <c r="E31">
         <v>3</v>
       </c>
       <c r="F31" s="1" t="s">
@@ -2940,7 +2945,7 @@
       <c r="D32" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E32" s="2">
+      <c r="E32">
         <v>5</v>
       </c>
       <c r="F32" s="1" t="s">
@@ -2960,7 +2965,7 @@
       <c r="D33" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="E33" s="2">
+      <c r="E33">
         <v>5</v>
       </c>
       <c r="F33" s="1" t="s">
@@ -2980,7 +2985,7 @@
       <c r="D34" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="E34" s="2">
+      <c r="E34">
         <v>5</v>
       </c>
       <c r="F34" s="1" t="s">
@@ -3000,7 +3005,7 @@
       <c r="D35" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E35" s="2">
+      <c r="E35">
         <v>5</v>
       </c>
       <c r="F35" s="1" t="s">
@@ -3020,7 +3025,7 @@
       <c r="D36" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E36" s="2">
+      <c r="E36">
         <v>4</v>
       </c>
       <c r="F36" s="1" t="s">
@@ -3040,7 +3045,7 @@
       <c r="D37" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E37" s="2">
+      <c r="E37">
         <v>5</v>
       </c>
       <c r="F37" s="1" t="s">
@@ -3060,7 +3065,7 @@
       <c r="D38" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E38" s="2">
+      <c r="E38">
         <v>5</v>
       </c>
       <c r="F38" s="1" t="s">
@@ -3080,7 +3085,7 @@
       <c r="D39" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="E39" s="2">
+      <c r="E39">
         <v>5</v>
       </c>
       <c r="F39" s="1" t="s">
@@ -3100,7 +3105,7 @@
       <c r="D40" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="E40" s="2">
+      <c r="E40">
         <v>4</v>
       </c>
       <c r="F40" s="1" t="s">
@@ -3120,7 +3125,7 @@
       <c r="D41" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="E41" s="2">
+      <c r="E41">
         <v>5</v>
       </c>
       <c r="F41" s="1" t="s">
@@ -3140,7 +3145,7 @@
       <c r="D42" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="E42" s="2">
+      <c r="E42">
         <v>5</v>
       </c>
       <c r="F42" s="1" t="s">
@@ -3160,7 +3165,7 @@
       <c r="D43" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="E43" s="2">
+      <c r="E43">
         <v>4</v>
       </c>
       <c r="F43" s="1" t="s">
@@ -3180,7 +3185,7 @@
       <c r="D44" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="E44" s="2">
+      <c r="E44">
         <v>5</v>
       </c>
       <c r="F44" s="1" t="s">
@@ -3200,7 +3205,7 @@
       <c r="D45" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="E45" s="2">
+      <c r="E45">
         <v>5</v>
       </c>
       <c r="F45" s="1" t="s">
@@ -3220,7 +3225,7 @@
       <c r="D46" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="E46" s="2">
+      <c r="E46">
         <v>2</v>
       </c>
       <c r="F46" s="1" t="s">
@@ -3240,7 +3245,7 @@
       <c r="D47" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="E47" s="2">
+      <c r="E47">
         <v>5</v>
       </c>
       <c r="F47" s="1" t="s">
@@ -3260,7 +3265,7 @@
       <c r="D48" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="E48" s="2">
+      <c r="E48">
         <v>5</v>
       </c>
       <c r="F48" s="1" t="s">
@@ -3280,7 +3285,7 @@
       <c r="D49" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E49" s="2">
+      <c r="E49">
         <v>5</v>
       </c>
       <c r="F49" s="1" t="s">
@@ -3300,7 +3305,7 @@
       <c r="D50" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E50" s="2">
+      <c r="E50">
         <v>5</v>
       </c>
       <c r="F50" s="1" t="s">
@@ -3320,7 +3325,7 @@
       <c r="D51" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="E51" s="2">
+      <c r="E51">
         <v>3</v>
       </c>
       <c r="F51" s="1" t="s">
@@ -3340,7 +3345,7 @@
       <c r="D52" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="E52" s="2">
+      <c r="E52">
         <v>5</v>
       </c>
       <c r="F52" s="1" t="s">
@@ -3360,7 +3365,7 @@
       <c r="D53" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="E53" s="2">
+      <c r="E53">
         <v>5</v>
       </c>
       <c r="F53" s="1" t="s">
@@ -3380,7 +3385,7 @@
       <c r="D54" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="E54" s="2">
+      <c r="E54">
         <v>5</v>
       </c>
       <c r="F54" s="1" t="s">
@@ -3400,7 +3405,7 @@
       <c r="D55" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="E55" s="2">
+      <c r="E55">
         <v>5</v>
       </c>
       <c r="F55" s="1" t="s">
@@ -3420,7 +3425,7 @@
       <c r="D56" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="E56" s="2">
+      <c r="E56">
         <v>4</v>
       </c>
       <c r="F56" s="1" t="s">
@@ -3440,7 +3445,7 @@
       <c r="D57" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="E57" s="2">
+      <c r="E57">
         <v>5</v>
       </c>
       <c r="F57" s="1" t="s">
@@ -3460,7 +3465,7 @@
       <c r="D58" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="E58" s="2">
+      <c r="E58">
         <v>5</v>
       </c>
       <c r="F58" s="1" t="s">
@@ -3480,7 +3485,7 @@
       <c r="D59" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E59" s="2">
+      <c r="E59">
         <v>1</v>
       </c>
       <c r="F59" s="1" t="s">
@@ -3500,7 +3505,7 @@
       <c r="D60" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="E60" s="2">
+      <c r="E60">
         <v>5</v>
       </c>
       <c r="F60" s="1" t="s">
@@ -3520,7 +3525,7 @@
       <c r="D61" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E61" s="2">
+      <c r="E61">
         <v>5</v>
       </c>
       <c r="F61" s="1" t="s">
@@ -3540,7 +3545,7 @@
       <c r="D62" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E62" s="2">
+      <c r="E62">
         <v>5</v>
       </c>
       <c r="F62" s="1" t="s">
@@ -3560,7 +3565,7 @@
       <c r="D63" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="E63" s="2">
+      <c r="E63">
         <v>5</v>
       </c>
       <c r="F63" s="1" t="s">
@@ -3580,7 +3585,7 @@
       <c r="D64" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="E64" s="2">
+      <c r="E64">
         <v>5</v>
       </c>
       <c r="F64" s="1" t="s">
@@ -3600,7 +3605,7 @@
       <c r="D65" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="E65" s="2">
+      <c r="E65">
         <v>5</v>
       </c>
       <c r="F65" s="1" t="s">
@@ -3620,7 +3625,7 @@
       <c r="D66" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E66" s="2">
+      <c r="E66">
         <v>3</v>
       </c>
       <c r="F66" s="1" t="s">
@@ -3640,7 +3645,7 @@
       <c r="D67" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="E67" s="2">
+      <c r="E67">
         <v>5</v>
       </c>
       <c r="F67" s="1" t="s">
@@ -3660,7 +3665,7 @@
       <c r="D68" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="E68" s="2">
+      <c r="E68">
         <v>5</v>
       </c>
       <c r="F68" s="1" t="s">
@@ -3680,7 +3685,7 @@
       <c r="D69" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="E69" s="2">
+      <c r="E69">
         <v>5</v>
       </c>
       <c r="F69" s="1" t="s">
@@ -3700,7 +3705,7 @@
       <c r="D70" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="E70" s="2">
+      <c r="E70">
         <v>4</v>
       </c>
       <c r="F70" s="1" t="s">
@@ -3720,7 +3725,7 @@
       <c r="D71" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E71" s="2">
+      <c r="E71">
         <v>5</v>
       </c>
       <c r="F71" s="1" t="s">
@@ -3740,7 +3745,7 @@
       <c r="D72" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="E72" s="2">
+      <c r="E72">
         <v>5</v>
       </c>
       <c r="F72" s="1" t="s">
@@ -3760,7 +3765,7 @@
       <c r="D73" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="E73" s="2">
+      <c r="E73">
         <v>5</v>
       </c>
       <c r="F73" s="1" t="s">
@@ -3780,7 +3785,7 @@
       <c r="D74" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E74" s="2">
+      <c r="E74">
         <v>5</v>
       </c>
       <c r="F74" s="1" t="s">
@@ -3800,7 +3805,7 @@
       <c r="D75" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="E75" s="2">
+      <c r="E75">
         <v>5</v>
       </c>
       <c r="F75" s="1" t="s">
@@ -3820,7 +3825,7 @@
       <c r="D76" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="E76" s="2">
+      <c r="E76">
         <v>5</v>
       </c>
       <c r="F76" s="1" t="s">
@@ -3840,7 +3845,7 @@
       <c r="D77" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="E77" s="2">
+      <c r="E77">
         <v>5</v>
       </c>
       <c r="F77" s="1" t="s">
@@ -3860,7 +3865,7 @@
       <c r="D78" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="E78" s="2">
+      <c r="E78">
         <v>5</v>
       </c>
       <c r="F78" s="1" t="s">
@@ -3880,7 +3885,7 @@
       <c r="D79" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="E79" s="2">
+      <c r="E79">
         <v>5</v>
       </c>
       <c r="F79" s="1" t="s">
@@ -3900,7 +3905,7 @@
       <c r="D80" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="E80" s="2">
+      <c r="E80">
         <v>5</v>
       </c>
       <c r="F80" s="1" t="s">
@@ -3920,7 +3925,7 @@
       <c r="D81" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="E81" s="2">
+      <c r="E81">
         <v>5</v>
       </c>
       <c r="F81" s="1" t="s">
@@ -3940,7 +3945,7 @@
       <c r="D82" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E82" s="2">
+      <c r="E82">
         <v>1</v>
       </c>
       <c r="F82" s="1" t="s">
@@ -3960,7 +3965,7 @@
       <c r="D83" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="E83" s="2">
+      <c r="E83">
         <v>5</v>
       </c>
       <c r="F83" s="1" t="s">
@@ -3980,7 +3985,7 @@
       <c r="D84" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="E84" s="2">
+      <c r="E84">
         <v>5</v>
       </c>
       <c r="F84" s="1" t="s">
@@ -4000,7 +4005,7 @@
       <c r="D85" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E85" s="2">
+      <c r="E85">
         <v>5</v>
       </c>
       <c r="F85" s="1" t="s">
@@ -4020,7 +4025,7 @@
       <c r="D86" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E86" s="2">
+      <c r="E86">
         <v>2</v>
       </c>
       <c r="F86" s="1" t="s">
@@ -4040,7 +4045,7 @@
       <c r="D87" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="E87" s="2">
+      <c r="E87">
         <v>5</v>
       </c>
       <c r="F87" s="1" t="s">
@@ -4060,7 +4065,7 @@
       <c r="D88" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="E88" s="2">
+      <c r="E88">
         <v>5</v>
       </c>
       <c r="F88" s="1" t="s">
@@ -4080,7 +4085,7 @@
       <c r="D89" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="E89" s="2">
+      <c r="E89">
         <v>5</v>
       </c>
       <c r="F89" s="1" t="s">
@@ -4100,7 +4105,7 @@
       <c r="D90" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="E90" s="2">
+      <c r="E90">
         <v>5</v>
       </c>
       <c r="F90" s="1" t="s">
@@ -4120,7 +4125,7 @@
       <c r="D91" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E91" s="2">
+      <c r="E91">
         <v>5</v>
       </c>
       <c r="F91" s="1" t="s">
@@ -4140,7 +4145,7 @@
       <c r="D92" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="E92" s="2">
+      <c r="E92">
         <v>5</v>
       </c>
       <c r="F92" s="1" t="s">
@@ -4160,7 +4165,7 @@
       <c r="D93" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E93" s="2">
+      <c r="E93">
         <v>5</v>
       </c>
       <c r="F93" s="1" t="s">
@@ -4180,7 +4185,7 @@
       <c r="D94" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="E94" s="2">
+      <c r="E94">
         <v>2</v>
       </c>
       <c r="F94" s="1" t="s">
@@ -4200,7 +4205,7 @@
       <c r="D95" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="E95" s="2">
+      <c r="E95">
         <v>5</v>
       </c>
       <c r="F95" s="1" t="s">
@@ -4220,7 +4225,7 @@
       <c r="D96" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="E96" s="2">
+      <c r="E96">
         <v>3</v>
       </c>
       <c r="F96" s="1" t="s">
@@ -4240,7 +4245,7 @@
       <c r="D97" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E97" s="2">
+      <c r="E97">
         <v>4</v>
       </c>
       <c r="F97" s="1" t="s">
@@ -4260,7 +4265,7 @@
       <c r="D98" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="E98" s="2">
+      <c r="E98">
         <v>5</v>
       </c>
       <c r="F98" s="1" t="s">
@@ -4280,7 +4285,7 @@
       <c r="D99" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="E99" s="2">
+      <c r="E99">
         <v>5</v>
       </c>
       <c r="F99" s="1" t="s">
@@ -4300,7 +4305,7 @@
       <c r="D100" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="E100" s="2">
+      <c r="E100">
         <v>5</v>
       </c>
       <c r="F100" s="1" t="s">
@@ -4320,7 +4325,7 @@
       <c r="D101" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="E101" s="2">
+      <c r="E101">
         <v>4</v>
       </c>
       <c r="F101" s="1" t="s">
@@ -4340,7 +4345,7 @@
       <c r="D102" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="E102" s="2">
+      <c r="E102">
         <v>5</v>
       </c>
       <c r="F102" s="1" t="s">
@@ -4360,7 +4365,7 @@
       <c r="D103" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="E103" s="2">
+      <c r="E103">
         <v>4</v>
       </c>
       <c r="F103" s="1" t="s">
@@ -4380,7 +4385,7 @@
       <c r="D104" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E104" s="2">
+      <c r="E104">
         <v>5</v>
       </c>
       <c r="F104" s="1" t="s">
@@ -4400,7 +4405,7 @@
       <c r="D105" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="E105" s="2">
+      <c r="E105">
         <v>5</v>
       </c>
       <c r="F105" s="1" t="s">
@@ -4420,7 +4425,7 @@
       <c r="D106" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="E106" s="2">
+      <c r="E106">
         <v>5</v>
       </c>
       <c r="F106" s="1" t="s">
@@ -4440,7 +4445,7 @@
       <c r="D107" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="E107" s="2">
+      <c r="E107">
         <v>5</v>
       </c>
       <c r="F107" s="1" t="s">
@@ -4460,7 +4465,7 @@
       <c r="D108" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="E108" s="2">
+      <c r="E108">
         <v>5</v>
       </c>
       <c r="F108" s="1" t="s">
@@ -4480,7 +4485,7 @@
       <c r="D109" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="E109" s="2">
+      <c r="E109">
         <v>5</v>
       </c>
       <c r="F109" s="1" t="s">
@@ -4500,7 +4505,7 @@
       <c r="D110" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="E110" s="2">
+      <c r="E110">
         <v>5</v>
       </c>
       <c r="F110" s="1" t="s">
@@ -4520,7 +4525,7 @@
       <c r="D111" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="E111" s="2">
+      <c r="E111">
         <v>5</v>
       </c>
       <c r="F111" s="1" t="s">
@@ -4540,7 +4545,7 @@
       <c r="D112" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="E112" s="2">
+      <c r="E112">
         <v>5</v>
       </c>
       <c r="F112" s="1" t="s">
@@ -4560,7 +4565,7 @@
       <c r="D113" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="E113" s="2">
+      <c r="E113">
         <v>5</v>
       </c>
       <c r="F113" s="1" t="s">
@@ -4580,7 +4585,7 @@
       <c r="D114" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="E114" s="2">
+      <c r="E114">
         <v>5</v>
       </c>
       <c r="F114" s="1" t="s">
@@ -4600,7 +4605,7 @@
       <c r="D115" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E115" s="2">
+      <c r="E115">
         <v>5</v>
       </c>
       <c r="F115" s="1" t="s">
@@ -4620,7 +4625,7 @@
       <c r="D116" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="E116" s="2">
+      <c r="E116">
         <v>5</v>
       </c>
       <c r="F116" s="1" t="s">
@@ -4640,7 +4645,7 @@
       <c r="D117" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="E117" s="2">
+      <c r="E117">
         <v>5</v>
       </c>
       <c r="F117" s="1" t="s">
@@ -4660,7 +4665,7 @@
       <c r="D118" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E118" s="2">
+      <c r="E118">
         <v>5</v>
       </c>
       <c r="F118" s="1" t="s">
@@ -4680,7 +4685,7 @@
       <c r="D119" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="E119" s="2">
+      <c r="E119">
         <v>4</v>
       </c>
       <c r="F119" s="1" t="s">
@@ -4700,7 +4705,7 @@
       <c r="D120" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="E120" s="2">
+      <c r="E120">
         <v>5</v>
       </c>
       <c r="F120" s="1" t="s">
@@ -4720,7 +4725,7 @@
       <c r="D121" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="E121" s="2">
+      <c r="E121">
         <v>4</v>
       </c>
       <c r="F121" s="1" t="s">
@@ -4740,7 +4745,7 @@
       <c r="D122" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="E122" s="2">
+      <c r="E122">
         <v>5</v>
       </c>
       <c r="F122" s="1" t="s">
@@ -4760,7 +4765,7 @@
       <c r="D123" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="E123" s="2">
+      <c r="E123">
         <v>5</v>
       </c>
       <c r="F123" s="1" t="s">
@@ -4780,7 +4785,7 @@
       <c r="D124" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="E124" s="2">
+      <c r="E124">
         <v>5</v>
       </c>
       <c r="F124" s="1" t="s">
@@ -4800,7 +4805,7 @@
       <c r="D125" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="E125" s="2">
+      <c r="E125">
         <v>5</v>
       </c>
       <c r="F125" s="1" t="s">
@@ -4820,7 +4825,7 @@
       <c r="D126" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="E126" s="2">
+      <c r="E126">
         <v>5</v>
       </c>
       <c r="F126" s="1" t="s">
@@ -4840,7 +4845,7 @@
       <c r="D127" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="E127" s="2">
+      <c r="E127">
         <v>5</v>
       </c>
       <c r="F127" s="1" t="s">
@@ -4860,7 +4865,7 @@
       <c r="D128" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="E128" s="2">
+      <c r="E128">
         <v>5</v>
       </c>
       <c r="F128" s="1" t="s">
@@ -4880,7 +4885,7 @@
       <c r="D129" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="E129" s="2">
+      <c r="E129">
         <v>5</v>
       </c>
       <c r="F129" s="1" t="s">
@@ -4900,7 +4905,7 @@
       <c r="D130" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="E130" s="2">
+      <c r="E130">
         <v>5</v>
       </c>
       <c r="F130" s="1" t="s">
@@ -4920,7 +4925,7 @@
       <c r="D131" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="E131" s="2">
+      <c r="E131">
         <v>5</v>
       </c>
       <c r="F131" s="1" t="s">
@@ -4940,7 +4945,7 @@
       <c r="D132" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="E132" s="2">
+      <c r="E132">
         <v>5</v>
       </c>
       <c r="F132" s="1" t="s">
@@ -4960,7 +4965,7 @@
       <c r="D133" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="E133" s="2">
+      <c r="E133">
         <v>5</v>
       </c>
       <c r="F133" s="1" t="s">
@@ -4980,7 +4985,7 @@
       <c r="D134" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="E134" s="2">
+      <c r="E134">
         <v>5</v>
       </c>
       <c r="F134" s="1" t="s">
@@ -5000,7 +5005,7 @@
       <c r="D135" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="E135" s="2">
+      <c r="E135">
         <v>5</v>
       </c>
       <c r="F135" s="1" t="s">
@@ -5020,7 +5025,7 @@
       <c r="D136" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="E136" s="2">
+      <c r="E136">
         <v>5</v>
       </c>
       <c r="F136" s="1" t="s">
@@ -5040,7 +5045,7 @@
       <c r="D137" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E137" s="2">
+      <c r="E137">
         <v>5</v>
       </c>
       <c r="F137" s="1" t="s">
@@ -5060,7 +5065,7 @@
       <c r="D138" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="E138" s="2">
+      <c r="E138">
         <v>5</v>
       </c>
       <c r="F138" s="1" t="s">
@@ -5080,7 +5085,7 @@
       <c r="D139" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E139" s="2">
+      <c r="E139">
         <v>5</v>
       </c>
       <c r="F139" s="1" t="s">
@@ -5100,7 +5105,7 @@
       <c r="D140" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="E140" s="2">
+      <c r="E140">
         <v>5</v>
       </c>
       <c r="F140" s="1" t="s">
@@ -5120,7 +5125,7 @@
       <c r="D141" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="E141" s="2">
+      <c r="E141">
         <v>5</v>
       </c>
       <c r="F141" s="1" t="s">
@@ -5140,7 +5145,7 @@
       <c r="D142" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="E142" s="2">
+      <c r="E142">
         <v>5</v>
       </c>
       <c r="F142" s="1" t="s">
@@ -5160,7 +5165,7 @@
       <c r="D143" s="1" t="s">
         <v>508</v>
       </c>
-      <c r="E143" s="2">
+      <c r="E143">
         <v>5</v>
       </c>
       <c r="F143" s="1" t="s">
@@ -5180,7 +5185,7 @@
       <c r="D144" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="E144" s="2">
+      <c r="E144">
         <v>5</v>
       </c>
       <c r="F144" s="1" t="s">
@@ -5200,7 +5205,7 @@
       <c r="D145" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="E145" s="2">
+      <c r="E145">
         <v>5</v>
       </c>
       <c r="F145" s="1" t="s">
@@ -5220,7 +5225,7 @@
       <c r="D146" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="E146" s="2">
+      <c r="E146">
         <v>5</v>
       </c>
       <c r="F146" s="1" t="s">
@@ -5240,7 +5245,7 @@
       <c r="D147" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E147" s="2">
+      <c r="E147">
         <v>5</v>
       </c>
       <c r="F147" s="1" t="s">
@@ -5260,7 +5265,7 @@
       <c r="D148" s="1" t="s">
         <v>526</v>
       </c>
-      <c r="E148" s="2">
+      <c r="E148">
         <v>5</v>
       </c>
       <c r="F148" s="1" t="s">
@@ -5280,7 +5285,7 @@
       <c r="D149" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="E149" s="2">
+      <c r="E149">
         <v>5</v>
       </c>
       <c r="F149" s="1" t="s">
@@ -5300,7 +5305,7 @@
       <c r="D150" s="1" t="s">
         <v>533</v>
       </c>
-      <c r="E150" s="2">
+      <c r="E150">
         <v>5</v>
       </c>
       <c r="F150" s="1" t="s">
@@ -5320,7 +5325,7 @@
       <c r="D151" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="E151" s="2">
+      <c r="E151">
         <v>3</v>
       </c>
       <c r="F151" s="1" t="s">
@@ -5340,7 +5345,7 @@
       <c r="D152" s="1" t="s">
         <v>541</v>
       </c>
-      <c r="E152" s="2">
+      <c r="E152">
         <v>3</v>
       </c>
       <c r="F152" s="1" t="s">
@@ -5360,7 +5365,7 @@
       <c r="D153" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="E153" s="2">
+      <c r="E153">
         <v>3</v>
       </c>
       <c r="F153" s="1" t="s">
@@ -5380,7 +5385,7 @@
       <c r="D154" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="E154" s="2">
+      <c r="E154">
         <v>4</v>
       </c>
       <c r="F154" s="1" t="s">
@@ -5400,7 +5405,7 @@
       <c r="D155" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E155" s="2">
+      <c r="E155">
         <v>5</v>
       </c>
       <c r="F155" s="1" t="s">
@@ -5420,7 +5425,7 @@
       <c r="D156" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E156" s="2">
+      <c r="E156">
         <v>5</v>
       </c>
       <c r="F156" s="1" t="s">
@@ -5440,7 +5445,7 @@
       <c r="D157" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="E157" s="2">
+      <c r="E157">
         <v>5</v>
       </c>
       <c r="F157" s="1" t="s">
@@ -5460,7 +5465,7 @@
       <c r="D158" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="E158" s="2">
+      <c r="E158">
         <v>5</v>
       </c>
       <c r="F158" s="1" t="s">
@@ -5480,7 +5485,7 @@
       <c r="D159" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="E159" s="2">
+      <c r="E159">
         <v>5</v>
       </c>
       <c r="F159" s="1" t="s">
@@ -5500,7 +5505,7 @@
       <c r="D160" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="E160" s="2">
+      <c r="E160">
         <v>5</v>
       </c>
       <c r="F160" s="1" t="s">
@@ -5520,7 +5525,7 @@
       <c r="D161" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E161" s="2">
+      <c r="E161">
         <v>5</v>
       </c>
       <c r="F161" s="1" t="s">
@@ -5540,7 +5545,7 @@
       <c r="D162" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E162" s="2">
+      <c r="E162">
         <v>5</v>
       </c>
       <c r="F162" s="1" t="s">
@@ -5560,7 +5565,7 @@
       <c r="D163" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="E163" s="2">
+      <c r="E163">
         <v>5</v>
       </c>
       <c r="F163" s="1" t="s">
@@ -5580,11 +5585,19 @@
       <c r="D164" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="E164" s="2">
+      <c r="E164">
         <v>5</v>
       </c>
       <c r="F164" s="1" t="s">
         <v>575</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E165">
+        <v>2</v>
+      </c>
+      <c r="F165" s="2" t="s">
+        <v>576</v>
       </c>
     </row>
   </sheetData>
